--- a/docs/PST1/PST1_31.07.24_output.xlsx
+++ b/docs/PST1/PST1_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731602969.6143525</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731602969.950131</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602969.6143525.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602969.950131.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.67</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>290.82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731602970.8866277</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731602974.1746633</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602970.8866277.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602974.1746633.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.44</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.25</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.189999999999998</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731602985.386681</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731602989.37115</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602985.386681.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602989.37115.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>288.93</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5300000000000296</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731602990.9899678</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731602990.9899678.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731602990.9899678.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.87</v>
       </c>
-      <c r="J6" t="n">
-        <v>288.87</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2799999999999727</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731602997.834883</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731603001.3215616</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602997.834883.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603001.3215616.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.78</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.17</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.6100000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731603001.3365223</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731603014.8340037</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603001.3365223.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603014.8340037.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.17</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.82</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731603014.8509583</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731603017.4765484</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603014.8509583.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603017.4765484.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.82</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.03</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731603038.4154904</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731603043.4857097</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731603038.4154904.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731603043.4857097.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6764</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6746.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>17.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -947,95 +1011,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731603045.4910553</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731603045.4910553.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731603045.4910553.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6748</v>
       </c>
-      <c r="J11" t="n">
-        <v>6748</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731603061.8431447</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731603072.026809</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603061.8431447.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603072.026809.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>513.15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>514.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731603079.0160036</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731603081.3388872</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603079.0160036.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603081.3388872.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1039.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2.800000000000182</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731603091.718186</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731603093.0280948</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603091.718186.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603093.0280948.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1045</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1043.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731603102.521738</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731603104.6089025</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603102.521738.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603104.6089025.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>11.935</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>11.948</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731603111.3974977</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731603115.1615942</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603111.3974977.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603115.1615942.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>11.962</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.893</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.06899999999999906</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731603118.1758826</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731603118.1758826.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731603118.1758826.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.902</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.902</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.04299999999999926</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731603131.3470464</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731603137.4910717</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603131.3470464.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603137.4910717.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>128</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731603142.346009</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731603144.1587746</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603142.346009.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603144.1587746.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.48</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130.66</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.180000000000007</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731603147.247168</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731603152.605543</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603147.247168.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603152.605543.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.38</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1451,43 +1575,49 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731603158.6305869</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731603158.6305869.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731603158.6305869.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>165.68</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>165.68</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731603190.1238687</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731603197.0903237</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603190.1238687.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603197.0903237.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>50.895</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>51.055</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731603197.1052904</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731603198.732687</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603197.1052904.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603198.732687.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>51.055</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>50.71</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3449999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -1599,95 +1741,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731603219.8286655</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731603219.8286655.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731603219.8286655.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1416.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>1416.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731603246.012151</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731603259.0058172</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603246.012151.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603259.0058172.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.82</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.95</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1695,95 +1849,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731603259.021775</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731603259.021775.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731603259.021775.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>60.95</v>
       </c>
-      <c r="J26" t="n">
-        <v>60.95</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.94</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731603261.019307</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731603262.1753159</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603261.019307.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603262.1753159.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>58.25</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>58.55</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731603263.2146313</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731603268.440647</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603263.2146313.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603268.440647.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>58.25</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>57.83</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.4200000000000017</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731603283.086217</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731603285.8238633</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603283.086217.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603285.8238633.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>142.54</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>142.06</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731603285.8388243</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731603291.829391</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603285.8388243.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603291.829391.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>142.06</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>143.28</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.219999999999999</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -1947,139 +2131,157 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731603300.9871507</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731603300.9871507.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731603300.9871507.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>144.04</v>
       </c>
-      <c r="J31" t="n">
-        <v>144.04</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731603308.4057102</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731603308.4057102.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731603308.4057102.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>85.34</v>
       </c>
-      <c r="J32" t="n">
-        <v>85.34</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>84.88</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.460000000000008</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731603335.9601495</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731603341.8708339</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731603335.9601495.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731603341.8708339.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>375.34</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>374.06</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.279999999999973</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2087,51 +2289,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731603346.702644</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731603352.5902724</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731603346.702644.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731603352.5902724.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>373.44</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>376.49</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.050000000000011</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -2139,95 +2347,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731603352.6062543</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731603352.6062543.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731603352.6062543.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>376.49</v>
       </c>
-      <c r="J35" t="n">
-        <v>376.49</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731603360.1195135</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731603360.970544</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603360.1195135.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603360.970544.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>0.09754</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.09832</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.0007800000000000029</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -2235,51 +2455,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731603363.5684211</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731603367.029548</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603363.5684211.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603367.029548.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>0.09826000000000001</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2287,51 +2513,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731603372.6389916</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731603373.353088</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603372.6389916.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/FEES1731603373.353088.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.09976</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.09970000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-5.999999999999062e-05</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2339,51 +2571,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731603389.407538</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731603402.4280307</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731603389.407538.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731603402.4280307.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>34.7</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>34.49</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -2391,44 +2629,50 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731603402.4441938</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731603402.4441938.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731603402.4441938.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>34.49</v>
       </c>
-      <c r="J40" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>34.69</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -2489,19 +2733,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5099999999999909</v>
+        <v>-0.7899999999999636</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1274999999999977</v>
+        <v>-0.1974999999999909</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.18</v>
+        <v>-0.28</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -2511,19 +2755,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.770000000000039</v>
+        <v>1.830000000000041</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5900000000000128</v>
+        <v>0.6100000000000136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4800000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -2533,19 +2777,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.699999999999989</v>
+        <v>1.319999999999993</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5666666666666629</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -2555,19 +2799,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05599999999999916</v>
+        <v>-0.09899999999999842</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01866666666666639</v>
+        <v>-0.03299999999999947</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.47</v>
+        <v>-0.83</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="6">
@@ -2665,19 +2909,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2100000000000009</v>
+        <v>0.4099999999999966</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1050000000000004</v>
+        <v>0.2049999999999983</v>
       </c>
       <c r="E10" t="n">
-        <v>0.61</v>
+        <v>1.19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -2687,19 +2931,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
@@ -2709,19 +2953,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.1400000000000077</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06500000000000128</v>
+        <v>0.07000000000000384</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
@@ -2775,19 +3019,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.460000000000008</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.460000000000008</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="16">
@@ -2841,19 +3085,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
